--- a/src/main/resources/xlsx/cadre/cadre_company_stat.xlsx
+++ b/src/main/resources/xlsx/cadre/cadre_company_stat.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AFBB60-BDB6-4A68-8D5F-887880AF3DEE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694A85AF-6B56-40F8-B7D6-0A94428445CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1 (7个兼职类型)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -167,6 +168,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -460,10 +464,10 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
@@ -476,67 +480,67 @@
     <col min="12" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" ht="43.15" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="31.15" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="1:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="31.9" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -544,7 +548,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="30.6" customHeight="1">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -559,13 +563,13 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:11" ht="30.6" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -594,4 +598,149 @@
     <oddFooter>第 &amp;P 页，共 &amp;N 页</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECD7685-FE35-4B52-A1F8-CA5E74F6C5B6}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="1" customWidth="1"/>
+    <col min="6" max="12" width="8.625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="43.15" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" ht="31.15" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="31.9" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" ht="30.6" customHeight="1">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="30.6" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:L3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>第 &amp;P 页，共 &amp;N 页</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>